--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29322"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3EDD0AD-1790-4861-9860-DFA25A9D4124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B67F5E8-AE48-4A35-B3EE-A62AD4FFC527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="120">
   <si>
     <t>No</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>ナビバーに「アカウント登録」「アカウント一覧」が表示される</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>杉村</t>
+  </si>
+  <si>
+    <t>ー</t>
   </si>
   <si>
     <t>Windows 11／
@@ -106,7 +115,8 @@
   <si>
     <t xml:space="preserve">1. 管理者でログインする
 2. アカウント登録画面で必要
-項目を入力し「確認する」→「登録する」&lt;br&gt;3. 登録完了後、一覧画面に遷移する
+項目を入力し「確認する」→「登録する」
+3. 登録完了後、一覧画面に遷移する
 </t>
   </si>
   <si>
@@ -155,7 +165,7 @@
 </t>
   </si>
   <si>
-    <t>該当アカウントの削除フラグが「無効」と表示される</t>
+    <t>該当アカウントの削除フラグが「無効（１）」と表示される</t>
   </si>
   <si>
     <t>アカウント検索→更新→再検索</t>
@@ -171,16 +181,6 @@
     <t>更新後の情報が検索結果に反映される</t>
   </si>
   <si>
-    <t>削除済アカウントの検索</t>
-  </si>
-  <si>
-    <t>1. 削除済みアカウントの情報
-で検索条件を入力し検索</t>
-  </si>
-  <si>
-    <t>削除フラグが「無効」と表示されたアカウントが検索結果に含まれる</t>
-  </si>
-  <si>
     <t>登録画面→確認画面→戻る</t>
   </si>
   <si>
@@ -217,13 +217,6 @@
     <t>該当項目に赤字エラーメッセージが表示される</t>
   </si>
   <si>
-    <t>更新画面の未入力チェック</t>
-  </si>
-  <si>
-    <t>1. 更新画面で全項目を未入力
-のまま「確認する」ボタンを押す</t>
-  </si>
-  <si>
     <t>パスワードのハッシュ化</t>
   </si>
   <si>
@@ -307,26 +300,6 @@
     <t>二重登録が発生せず、再送信防止の処理がされている</t>
   </si>
   <si>
-    <t>一覧画面で検索後に「更新」→「戻る」</t>
-  </si>
-  <si>
-    <t>1. 検索結果から「更新」ボタン
-→更新画面→「前に戻る」</t>
-  </si>
-  <si>
-    <t>検索結果が保持されたまま一覧に戻る</t>
-  </si>
-  <si>
-    <t>削除確認画面で「F5」キー</t>
-  </si>
-  <si>
-    <t>1. 削除確認画面で「F5」
-キーを押す</t>
-  </si>
-  <si>
-    <t>二重削除が発生せず、削除済み状態が維持される</t>
-  </si>
-  <si>
     <t>ログイン後にセッション切れ</t>
   </si>
   <si>
@@ -336,6 +309,12 @@
   </si>
   <si>
     <t>セッション切れによるログイン画面への遷移またはエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>特にセッション切れ等なくログインされたまま</t>
   </si>
   <si>
     <t>登録画面で不正な文字入力</t>
@@ -360,14 +339,17 @@
     <t>入力チェックでエラーが表示される（半角英数字のみ許可）</t>
   </si>
   <si>
-    <t>一覧画面で削除→戻る→再削除</t>
+    <t>一覧画面で削除→ブラウザで戻る→再削除</t>
   </si>
   <si>
     <t>1. 一覧画面で削除→確認画面
-→「前に戻る」→再度「削除する」</t>
+→ブラウザで戻る→再度「削除する」</t>
   </si>
   <si>
     <t>二重削除が発生しない（削除済み状態が維持される</t>
+  </si>
+  <si>
+    <t>削除済のものが再度削除完了しましたと表示されてしまう</t>
   </si>
   <si>
     <t>未ログインで直接URLアクセス</t>
@@ -383,13 +365,17 @@
     <t>複数タブで同時操作</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 同一アカウントで複数タブ
+    <t xml:space="preserve">1. 別のアカウントで複数タブ
 を開く
-2. 片方で登録、もう片方で削除
+2. ログインしているアカウント
+を別タブの管理者アカウントで削除
 </t>
   </si>
   <si>
-    <t>セッションが維持され、操作が衝突しない</t>
+    <t>アカウントが削除された時点で操作不可になる</t>
+  </si>
+  <si>
+    <t>削除したアカウントが、ログインしてる途中であれば操作できてしまう</t>
   </si>
   <si>
     <t>ウィンドウを小さくして表示を確認</t>
@@ -402,25 +388,8 @@
     <t>レイアウトが崩れず、操作可能である</t>
   </si>
   <si>
-    <t>ブラウザ依存の表示確認</t>
-  </si>
-  <si>
-    <t>1. FirefoxやEdgeなど
-別ブラウザで一覧画面を表示</t>
-  </si>
-  <si>
-    <t>表示崩れや機能不具合がない</t>
-  </si>
-  <si>
-    <t>長時間放置後の操作</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. ログイン後、30分以上放置
-2. 登録画面で操作
-</t>
-  </si>
-  <si>
-    <t>セッション切れによるログイン画面への遷移またはエラー表示</t>
+    <t>レスポンシブでないため
+ヘッダーが崩れてしまう</t>
   </si>
   <si>
     <t>登録画面で最大文字数入力</t>
@@ -442,16 +411,6 @@
     <t>ログインできず、エラーメッセージが表示される</t>
   </si>
   <si>
-    <t>更新画面で他人のIDを指定</t>
-  </si>
-  <si>
-    <t>1. URL欄に他人のIDを指定
-して「update.php?id=999」などにアクセス</t>
-  </si>
-  <si>
-    <t>権限エラーまたは「該当データなし」と表示される</t>
-  </si>
-  <si>
     <t>登録画面でコピー＆ペースト操作</t>
   </si>
   <si>
@@ -478,6 +437,9 @@
     <t>「確認する」ボタンが押されたのと同じ動作になる</t>
   </si>
   <si>
+    <t>クリックしないと反応しない</t>
+  </si>
+  <si>
     <t>登録画面で同一メールアドレス登録</t>
   </si>
   <si>
@@ -488,14 +450,7 @@
     <t>「すでに登録されています」などのエラーが表示される（重複チェック）</t>
   </si>
   <si>
-    <t>更新画面でパスワード未変更</t>
-  </si>
-  <si>
-    <t>1. 更新画面でパスワード欄
-を空欄のまま更新</t>
-  </si>
-  <si>
-    <t>既存のパスワードが維持される</t>
+    <t>同一アドレスも入力可能で、重複チェックが行われない</t>
   </si>
   <si>
     <t>一覧画面で複数検索条件の組み合わせ</t>
@@ -556,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -655,21 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -688,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -711,22 +651,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1063,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:I43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1123,12 +1060,20 @@
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="217.5" customHeight="1">
@@ -1136,20 +1081,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="217.5" customHeight="1">
@@ -1157,20 +1110,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="217.5" customHeight="1">
@@ -1178,20 +1139,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="217.5" customHeight="1">
@@ -1199,20 +1168,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="217.5" customHeight="1">
@@ -1220,20 +1197,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="217.5" customHeight="1">
@@ -1241,20 +1226,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="217.5" customHeight="1">
@@ -1262,20 +1255,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="217.5" customHeight="1">
@@ -1283,20 +1284,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="217.5" customHeight="1">
@@ -1304,20 +1313,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="217.5" customHeight="1">
@@ -1325,20 +1342,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="217.5" customHeight="1">
@@ -1346,20 +1371,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I13" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="217.5" customHeight="1">
@@ -1367,20 +1400,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="217.5" customHeight="1">
@@ -1388,20 +1429,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I15" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="217.5" customHeight="1">
@@ -1409,20 +1458,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I16" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="217.5" customHeight="1">
@@ -1430,20 +1487,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I17" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="217.5" customHeight="1">
@@ -1451,20 +1516,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I18" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="217.5" customHeight="1">
@@ -1472,335 +1545,463 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="217.5" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I20" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="217.5" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I21" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="217.5" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="B22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="I22" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="217.5" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="B23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I23" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="217.5" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="B24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I24" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="217.5" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="B25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="I25" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="217.5" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I26" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="217.5" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="B27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="I27" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="217.5" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="B28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="I28" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="217.5" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="B29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I29" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="217.5" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="B30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I30" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="217.5" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="B31" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I31" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="217.5" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="B32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I32" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="217.5" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="B33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="I33" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="217.5" customHeight="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="B34" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="I34" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="217.5" customHeight="1">
@@ -1808,188 +2009,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="8">
+        <v>45925</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="I35" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="217.5" customHeight="1">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="217.5" customHeight="1">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="217.5" customHeight="1">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="217.5" customHeight="1">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="217.5" customHeight="1">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="217.5" customHeight="1">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="217.5" customHeight="1">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="217.5" customHeight="1">
-      <c r="A43" s="10">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
